--- a/Video_Storyboards/01_VideoListe.xlsx
+++ b/Video_Storyboards/01_VideoListe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabian\Desktop\Arbeit\HSBO\EigeneArbeit\OER4SDI\Konzeptionierung_Lernmodule\Module_HSBO\1_Module_GeospatialWebServices\Video_Storyboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFCCCD1-A9D4-4B13-9626-0D74C8C438E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D359B31E-8488-44E8-9AE4-99594FBF7558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Modulnr.</t>
   </si>
@@ -63,16 +63,19 @@
     <t>Screencast zur Einbindung von Geospatial Web Services in QGIS (Mit Übung verknüpfen)</t>
   </si>
   <si>
-    <t xml:space="preserve">Vorstellung und Funktionsrahmen der verschiedenen Geospatial Web Services darstellen (WMS, WFS, etc.) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screencast zur Datenaquise (Wo sind gute Geospatial Web Services zu finden) + Requests erklären (get…) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Einführung in das Thema: Aufbau, Funktion und Standards von Geospatial Web Services </t>
   </si>
   <si>
     <t>Screencast zur Veröffentlichung eines Geospatial Web Services (WMS) über Geoserver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screencast zur Datenaquise (Wo sind gute Geospatial Web Services zu finden)  </t>
+  </si>
+  <si>
+    <t>Vorstellung des Funktionsrahmen der verschiedenen Geospatial Web Services darstellen (WMS, WFS, etc.) + Requests erklären (get…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ist das notwendig? Oder lieber einfach einige Links dazu geben oder in Video 1 kur mit aufnehmen </t>
   </si>
 </sst>
 </file>
@@ -150,13 +153,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0F960A9-A027-4AE1-856F-9DDCC502C663}" name="Tabelle1" displayName="Tabelle1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0F960A9-A027-4AE1-856F-9DDCC502C663}" name="Tabelle1" displayName="Tabelle1" ref="A1:D1048576" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D1048576" xr:uid="{F0F960A9-A027-4AE1-856F-9DDCC502C663}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{62B17D10-B654-4F3C-B1CF-0CBE0F96D944}" name="Modulnr." dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4B8AEA5A-7C2E-4365-9298-04D63152C7B3}" name="Videonr." dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B3DC25C8-6326-4651-BA7A-0A4B8A03F83A}" name="Bezeichnung" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{384E4244-8DE8-4D07-80E0-01D9C1D03514}" name="Inhalt/Thema" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{62B17D10-B654-4F3C-B1CF-0CBE0F96D944}" name="Modulnr." dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{4B8AEA5A-7C2E-4365-9298-04D63152C7B3}" name="Videonr." dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{B3DC25C8-6326-4651-BA7A-0A4B8A03F83A}" name="Bezeichnung" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{384E4244-8DE8-4D07-80E0-01D9C1D03514}" name="Inhalt/Thema" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,9 +440,10 @@
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.36328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="90.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="76.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -464,10 +468,11 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -478,10 +483,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -492,10 +500,11 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -508,8 +517,9 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -522,8 +532,9 @@
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -534,8 +545,9 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
